--- a/templates/AutomationOrg/Division To division Transfer.xlsx
+++ b/templates/AutomationOrg/Division To division Transfer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\rsqasampleproj\rsqasampleproj\templates\QA-Automation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE0FDDA-6593-452E-B168-C6291B0CA35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F8EAB3-5C10-460D-874E-0B395D99F9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BB441E9F-4FBE-410A-8F63-C9ADD7579EED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB441E9F-4FBE-410A-8F63-C9ADD7579EED}"/>
   </bookViews>
   <sheets>
     <sheet name="8176-Serial" sheetId="3" r:id="rId1"/>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327BB445-E756-4647-886B-5441E232C968}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,7 +687,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A9" sqref="A9:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1022,8 +1022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452DA90E-1723-4B6B-96A7-A982916890FA}">
   <dimension ref="A1:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/templates/AutomationOrg/Division To division Transfer.xlsx
+++ b/templates/AutomationOrg/Division To division Transfer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F8EAB3-5C10-460D-874E-0B395D99F9BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D70931-AEF7-4215-8CF1-7AE6532A12AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BB441E9F-4FBE-410A-8F63-C9ADD7579EED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{BB441E9F-4FBE-410A-8F63-C9ADD7579EED}"/>
   </bookViews>
   <sheets>
     <sheet name="8176-Serial" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="53">
   <si>
     <t>Site</t>
   </si>
@@ -137,9 +137,6 @@
     <t>LT6</t>
   </si>
   <si>
-    <t>OH to OH</t>
-  </si>
-  <si>
     <t>BKFL1 to BKFL1</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
   </si>
   <si>
     <t>multidiv no track</t>
-  </si>
-  <si>
-    <t>9RH2F</t>
   </si>
   <si>
     <t>9TIOK</t>
@@ -568,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{327BB445-E756-4647-886B-5441E232C968}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,13 +638,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -665,16 +659,16 @@
         <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" t="s">
         <v>19</v>
       </c>
       <c r="AC2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -684,10 +678,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAC26E65-409C-493E-ABD4-A039BE3F1B14}">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD1048576"/>
+      <selection activeCell="C5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -753,13 +747,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
         <v>15</v>
@@ -771,7 +765,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -785,13 +779,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
       </c>
       <c r="D3" t="s">
         <v>49</v>
@@ -806,7 +800,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -815,7 +809,7 @@
         <v>21</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -823,13 +817,16 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -841,7 +838,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -850,165 +847,10 @@
         <v>21</v>
       </c>
       <c r="L4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6">
         <v>25</v>
       </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>42</v>
-      </c>
-      <c r="J7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K7" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7">
-        <v>85</v>
-      </c>
-      <c r="M7" t="s">
+      <c r="M4" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8">
-        <v>10</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1020,10 +862,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452DA90E-1723-4B6B-96A7-A982916890FA}">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1093,13 +935,13 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F2">
         <v>1001</v>
@@ -1111,10 +953,10 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K2" t="s">
         <v>19</v>
@@ -1131,13 +973,13 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
       </c>
       <c r="F3" t="s">
         <v>15</v>
@@ -1152,7 +994,7 @@
         <v>30</v>
       </c>
       <c r="J3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
@@ -1166,16 +1008,16 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4">
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1187,10 +1029,10 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K4" t="s">
         <v>19</v>
@@ -1210,10 +1052,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
         <v>40</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>32</v>
@@ -1231,7 +1073,7 @@
         <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
         <v>19</v>
@@ -1243,7 +1085,7 @@
         <v>6</v>
       </c>
       <c r="N5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1254,13 +1096,13 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>
@@ -1272,10 +1114,10 @@
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <v>100</v>
       </c>
       <c r="K6" t="s">
         <v>19</v>
@@ -1284,7 +1126,10 @@
         <v>20</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1295,13 +1140,13 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
         <v>15</v>
@@ -1313,10 +1158,10 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7">
-        <v>100</v>
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
       </c>
       <c r="K7" t="s">
         <v>19</v>
@@ -1325,98 +1170,10 @@
         <v>20</v>
       </c>
       <c r="M7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8">
-        <v>100</v>
-      </c>
-      <c r="K8" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9">
-        <v>3</v>
-      </c>
-      <c r="N9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
